--- a/biology/Zoologie/Liste_des_espèces_de_l'île_du_Millénaire/Liste_des_espèces_de_l'île_du_Millénaire.xlsx
+++ b/biology/Zoologie/Liste_des_espèces_de_l'île_du_Millénaire/Liste_des_espèces_de_l'île_du_Millénaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île du Millénaire, aussi connue sous le nom d'île Caroline, est une île inhabitée de la république des Kiribati et qui, de ce fait, présente un grand intérêt pour la faune et la flore qui peuvent ainsi s'y développer facilement. Malgré quelques changements dus à l'Homme, principalement dans la flore avec l'implantation de cocotiers, l'île semble aujourd'hui s'en être particulièrement bien remise et abrite plusieurs espèces vulnérables, essentiellement des oiseaux. Son état intact lui a par ailleurs valu d'être classée comme patrimoine mondial et réserve de biosphère, elle est notamment considérée comme une des rares îles primitives restantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,22 +525,95 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Arbres
-Pisonia grandis
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pisonia grandis
 Morinda citrifolia
 Cocos nucifera
 Cordia subcordata
 Pandanus tectorius
 Hibiscus tiliaceus
 Thespesia populnea
-Calophyllum
-Arbustes
-Heliotropium foertherianum
+Calophyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arbustes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliotropium foertherianum
 Suriana maritima
 Ximenia americana
-Scaevola taccada
-Herbes
-Heliotropium anomalum
+Scaevola taccada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herbes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Heliotropium anomalum
 Boerhavia repens
 Portulaca lutea
 Laportea ruderalis
@@ -546,34 +631,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Oiseaux de mer nichant
-Sterne fuligineuse (Onychoprion fuscata)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oiseaux de mer nichant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sterne fuligineuse (Onychoprion fuscata)
 Frégate du Pacifique (Fregata minor)
 Fou masqué (Sula dactylatra)
 Fou brun (Sula leucogaster)
@@ -583,34 +673,238 @@
 Noddi noir (Anous minutus)
 Sterne blanche (Gygis alba)
 Phaéton à brins rouges (Phaethon rubricauda) (Kepler)
-Noddi bleu (Procelsterna cerulea) (Kepler)
-Autres oiseaux
-Pluvier fauve (Pluvialis fulva)
+Noddi bleu (Procelsterna cerulea) (Kepler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pluvier fauve (Pluvialis fulva)
 Courlis d'Alaska (Numenius tahitiensis)
 Chevalier errant (Heteroscelus incanum)
 Coucou de Nouvelle-Zélande (Eudynamis taitensis)
 Aigrette sacrée (Egretta sacra) (Kepler)
 Pluvier bronzé (Pluvialis dominica) (Kepler)
 Tournepierre à collier (Arenaria interpres) (Kepler)
-Bécasseau sanderling (Crocethia alba) (Kepler)
-Lézards
-Lepidodactylus lugubris (Kepler)
+Bécasseau sanderling (Crocethia alba) (Kepler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lézards</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lepidodactylus lugubris (Kepler)
 Gehyra oceanica (Kepler)
 Cryptoblepharus poecilopleurus (Kepler)
 Lipinia noctua (Kepler)
 Emoia cyanura (Kepler)
-Emoia impar (Kepler)
-Mammifères
-Rat polynésien (Rattus exulans) (Kepler)
-Grand dauphin de l'océan Indien (Tursiops gilli) (Kepler)
-Tortues
-Tortue verte (Chelonia mydas)
-Crabes
-Crabe de cocotier (Birgus largo)
+Emoia impar (Kepler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rat polynésien (Rattus exulans) (Kepler)
+Grand dauphin de l'océan Indien (Tursiops gilli) (Kepler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tortues</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tortue verte (Chelonia mydas)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Crabes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Crabe de cocotier (Birgus largo)
 Carpilius maculatus (Kepler)
-Coenobita perlatus (Kepler)
-Polychètes
-Serpula tetratropia[1]</t>
+Coenobita perlatus (Kepler)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_de_l'île_du_Millénaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_de_l%27%C3%AEle_du_Mill%C3%A9naire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Polychètes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Serpula tetratropia</t>
         </is>
       </c>
     </row>
